--- a/biology/Botanique/Tricalysia_lasiodelphys/Tricalysia_lasiodelphys.xlsx
+++ b/biology/Botanique/Tricalysia_lasiodelphys/Tricalysia_lasiodelphys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricalysia lasiodelphys (K.Schum. &amp; K.Krause) A.Chev. est une espèce de plantes de la famille des Rubiacées et du genre Tricalysia, observée au Cameroun et au Gabon[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricalysia lasiodelphys (K.Schum. &amp; K.Krause) A.Chev. est une espèce de plantes de la famille des Rubiacées et du genre Tricalysia, observée au Cameroun et au Gabon.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit arbre pouvant atteindre 15 m de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit arbre pouvant atteindre 15 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 décembre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 décembre 2017) :
 sous-espèce Tricalysia lasiodelphys subsp. anomalura
 sous-espèce Tricalysia lasiodelphys subsp. lasiodelphys
-Selon The Plant List            (5 décembre 2017)[1] :
+Selon The Plant List            (5 décembre 2017) :
 sous-espèce Tricalysia lasiodelphys subsp. anomalura (N.Hallé) Robbr.
-Selon Tropicos                                           (5 décembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tricalysia lasiodelphys subsp. anomalura (N. Hallé) Robbr.
 sous-espèce Tricalysia lasiodelphys subsp. lasiodelphys</t>
         </is>
@@ -579,10 +595,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce anomalura est présente au Cameroun (réserve de faune du Dja) et au Gabon sur deux sites.
-La sous-espèce lasiodelphys est endémique du Cameroun où elle a été observée sur cinq sites : les pentes du mont Cameroun (Région du Sud-Ouest), également dans la Région du Littoral (à Song Bong, près de Lep Mbikeng et près du lac Tissongo) ; ainsi qu'au Sud près de Kribi et aux alentours de Bipindi[2].
+La sous-espèce lasiodelphys est endémique du Cameroun où elle a été observée sur cinq sites : les pentes du mont Cameroun (Région du Sud-Ouest), également dans la Région du Littoral (à Song Bong, près de Lep Mbikeng et près du lac Tissongo) ; ainsi qu'au Sud près de Kribi et aux alentours de Bipindi.
 </t>
         </is>
       </c>
